--- a/resource/quiz/202103_revoicequizlist.xlsx
+++ b/resource/quiz/202103_revoicequizlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkdung/Library/Caches/com.binarynights.ForkLift2/#19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkdung/Library/Caches/com.binarynights.ForkLift2/#88/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1004C5-7EA1-1148-AE8D-D95F2D15D772}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C50F1-0013-FC4C-9F25-D6E5E9943C97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,18 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소한은 24절기 가운데 스물세 번째 절기로 이것이라는 뜻의 절기에요. 여기서 이것은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 속담에 관한 퀴즈에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 속담은 두 가지 뜻으로 쓰이는데요. 행동이 매우 민첩함을 이르는말이기도 하고 어떤 행동을 당장 해치우지 못하여 안달하는 조급한 성질을 이르는말로, 이것에 콩 볶아 먹겠다라는 속담인데요. 여기서 이것은 무엇일까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지나치게 참견하기를 좋아하는 사람에게 오지랖이 넓다라는 말을 많이 하는데요. 여기서 오지랖이란 웃옷의 어느 한 부분을 의미하는데요. 무엇일까요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,14 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거센 바람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후라이팬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>옷의 앞자락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,14 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>찬 바람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번갯불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>옷의 소매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,14 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작은 추위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모닥불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>옷의 목둘레</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,14 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콧바람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌덩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>옷의 팔꿈치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>번갯불에 콩 볶아 먹겠다라는 속담은 번쩍하는 번갯불에 콩을 볶아 먹을 만큼 행동이 무척 빠르다는 말이에요. 또 성질이 조급하여 무엇이든지 당장 해치우려하는 행동을 이르는 말이기도 해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오지랖이란 우리말로서 윗옷의 앞자락을 말해요. 즉 오지랖이 넓다는 것은 옷의 앞자락이 넓다는 뜻으로서 웃옷의 앞자락이 넓으면 안에 있는 다른 옷을 감싸버릴 수가 있는 것처럼 사람도 무슨일이나 말이든 앞장서서 간섭하고 참견하고 다니는 것을 비유하여 오지랖이 넓다고 말해요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소한은 해가 양력으로 바뀌고 처음 나타나는 절기에요. 소한 무렵은 정초한파라 불리는 강추위가 몰려오는 시기랍니다. 농가에서는 소한부터 날이 풀리는 입춘 전까지 약 한달 간 혹한에 대비해 만반의 준비를 해뒀고, 눈이 많이 내리는 지방에서는 땔감과 먹을거리를 충분히 비치해 두었다고 하네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우리나라에서는 육이오 사변이 끝난 후, 1955년 이후 베이비 붐이 일어나 인구 증가율이 3퍼센트 수준까지 증가하기도 했다고 하네요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,6 +828,58 @@
   </si>
   <si>
     <t>아스피린은 여러가지 질병과 통증에 효과가 있어, 오랜 시간동안 해열진통제로 사용되었던 약이라고 해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로회복제인 '박카스'의 주성분이며, 각종 혈관계 질환 예방에 효과가 있다고 알려진 이것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타우린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나트륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사포닌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유기화합물의 일종인 타우린은 뇌의 교감신경에 대해 억제작용을 일으켜 피로회복효과로 잘 알려져있어요. 타우린은 특히 해산물에 많이 들어있다고 해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로하지 않으신가요? 피로에 좋다고 알려진 약물이 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 신조에 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츤데레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10대들이 만들어 낸 줄임말이자 신조어 중, '버스 카드 충전'을 의미하는 신조어는 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버카충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버카충은 버스 카드 충전에서 앞글자를 따서 만든 줄임말로 10대들이 많이 사용하는 신조어라고 해요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B21E13-519B-49F6-A298-E0290A1CE3D3}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="83" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -1331,10 +1331,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -1349,19 +1349,19 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4" t="s">
@@ -1373,32 +1373,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="J2" s="4">
         <v>4</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -1407,32 +1407,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3"/>
@@ -1442,31 +1442,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1474,31 +1474,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1506,31 +1506,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1">
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1">
@@ -1538,31 +1538,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1570,31 +1570,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1">
@@ -1602,32 +1602,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9"/>
@@ -1637,32 +1637,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J10" s="4">
         <v>4</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10"/>
@@ -1672,32 +1672,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11"/>
@@ -1707,32 +1707,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J12" s="4">
         <v>2</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12"/>
@@ -1745,25 +1745,25 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1771,31 +1771,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J14" s="1">
         <v>3</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1803,31 +1803,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" customHeight="1">
@@ -1835,31 +1835,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1867,31 +1867,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1899,31 +1899,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="J18" s="1">
         <v>3</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1931,31 +1931,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J19" s="1">
         <v>4</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1963,31 +1963,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="J20" s="1">
         <v>3</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1995,31 +1995,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2027,31 +2027,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2059,36 +2059,36 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J23" s="4">
         <v>3</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2096,32 +2096,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J24" s="4">
         <v>3</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -2131,32 +2131,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J25" s="4">
         <v>3</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2166,32 +2166,32 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J26" s="4">
         <v>3</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -2201,32 +2201,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J27" s="4">
         <v>2</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -2236,14 +2236,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F28" s="4">
         <v>10</v>
@@ -2261,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2281,22 +2281,22 @@
         <v>9</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J29" s="4">
         <v>2</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29"/>
@@ -2306,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
@@ -2316,22 +2316,22 @@
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J30" s="4">
         <v>3</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30"/>
@@ -2340,33 +2340,32 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="B31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" s="1">
         <v>3</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>96</v>
+      <c r="K31" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31"/>
@@ -2376,36 +2375,36 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="J32" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2">
